--- a/sample_data/real_example_input.xlsx
+++ b/sample_data/real_example_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/680a8d19ff3b6d83/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\ashaar\medical-rotation-scheduling\sample_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{23FFD0B9-A8FA-5A4A-88F8-78BC32CDA049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{903C4E72-11C0-1E4E-8831-546D26670A09}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903F85B2-E16B-4DF9-AAE6-EBDCA0C90C14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="36000" windowHeight="22520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="196">
   <si>
     <t>ID</t>
   </si>
@@ -593,6 +593,21 @@
   </si>
   <si>
     <t>R2_047</t>
+  </si>
+  <si>
+    <t>R_NEURO_001</t>
+  </si>
+  <si>
+    <t>R_NEURO</t>
+  </si>
+  <si>
+    <t>R_NEURO_002</t>
+  </si>
+  <si>
+    <t>R_NEURO_003</t>
+  </si>
+  <si>
+    <t>R_NEURO_004</t>
   </si>
 </sst>
 </file>
@@ -967,15 +982,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:H184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F181" sqref="F181"/>
+    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -995,7 +1010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1015,7 +1030,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1035,7 +1050,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1070,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1075,7 +1090,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1095,7 +1110,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1115,7 +1130,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1135,7 +1150,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1155,7 +1170,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1175,7 +1190,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -1195,7 +1210,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1215,7 +1230,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -1235,7 +1250,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1255,7 +1270,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -1275,7 +1290,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -1295,7 +1310,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -1315,7 +1330,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>22</v>
       </c>
@@ -1335,7 +1350,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -1355,7 +1370,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>24</v>
       </c>
@@ -1375,7 +1390,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1395,7 +1410,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>26</v>
       </c>
@@ -1415,7 +1430,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -1435,7 +1450,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -1455,7 +1470,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>29</v>
       </c>
@@ -1475,7 +1490,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1495,7 +1510,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>31</v>
       </c>
@@ -1515,7 +1530,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>32</v>
       </c>
@@ -1535,7 +1550,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>33</v>
       </c>
@@ -1555,7 +1570,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>34</v>
       </c>
@@ -1575,7 +1590,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>35</v>
       </c>
@@ -1595,7 +1610,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>36</v>
       </c>
@@ -1615,7 +1630,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -1635,7 +1650,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>38</v>
       </c>
@@ -1655,7 +1670,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -1675,7 +1690,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>40</v>
       </c>
@@ -1695,7 +1710,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>41</v>
       </c>
@@ -1715,7 +1730,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -1735,7 +1750,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>43</v>
       </c>
@@ -1755,7 +1770,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1775,7 +1790,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>45</v>
       </c>
@@ -1795,7 +1810,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>46</v>
       </c>
@@ -1815,7 +1830,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>47</v>
       </c>
@@ -1835,7 +1850,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>48</v>
       </c>
@@ -1855,7 +1870,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -1875,7 +1890,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1895,7 +1910,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -1915,7 +1930,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>52</v>
       </c>
@@ -1935,7 +1950,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>53</v>
       </c>
@@ -1955,7 +1970,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -1975,7 +1990,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>55</v>
       </c>
@@ -1995,7 +2010,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>56</v>
       </c>
@@ -2015,7 +2030,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>57</v>
       </c>
@@ -2035,7 +2050,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>58</v>
       </c>
@@ -2055,7 +2070,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>59</v>
       </c>
@@ -2075,7 +2090,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>60</v>
       </c>
@@ -2095,7 +2110,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>61</v>
       </c>
@@ -2115,7 +2130,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>62</v>
       </c>
@@ -2135,7 +2150,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>63</v>
       </c>
@@ -2155,7 +2170,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>64</v>
       </c>
@@ -2175,7 +2190,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>65</v>
       </c>
@@ -2195,7 +2210,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -2215,7 +2230,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>67</v>
       </c>
@@ -2235,7 +2250,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>68</v>
       </c>
@@ -2255,7 +2270,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>69</v>
       </c>
@@ -2275,7 +2290,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>70</v>
       </c>
@@ -2295,7 +2310,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -2315,7 +2330,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>72</v>
       </c>
@@ -2335,7 +2350,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>73</v>
       </c>
@@ -2355,7 +2370,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -2375,7 +2390,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>75</v>
       </c>
@@ -2395,7 +2410,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>76</v>
       </c>
@@ -2415,7 +2430,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -2435,7 +2450,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>78</v>
       </c>
@@ -2455,7 +2470,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>79</v>
       </c>
@@ -2475,7 +2490,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>80</v>
       </c>
@@ -2495,7 +2510,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2515,7 +2530,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>82</v>
       </c>
@@ -2535,7 +2550,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>83</v>
       </c>
@@ -2555,7 +2570,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>84</v>
       </c>
@@ -2575,7 +2590,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>85</v>
       </c>
@@ -2595,7 +2610,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>86</v>
       </c>
@@ -2615,7 +2630,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>87</v>
       </c>
@@ -2635,7 +2650,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>88</v>
       </c>
@@ -2655,7 +2670,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>89</v>
       </c>
@@ -2675,7 +2690,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>90</v>
       </c>
@@ -2695,7 +2710,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2715,7 +2730,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>92</v>
       </c>
@@ -2735,7 +2750,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>93</v>
       </c>
@@ -2755,7 +2770,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>94</v>
       </c>
@@ -2775,7 +2790,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>95</v>
       </c>
@@ -2795,7 +2810,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>96</v>
       </c>
@@ -2815,7 +2830,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>185</v>
       </c>
@@ -2835,7 +2850,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>186</v>
       </c>
@@ -2855,7 +2870,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>187</v>
       </c>
@@ -2875,7 +2890,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>188</v>
       </c>
@@ -2895,7 +2910,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>189</v>
       </c>
@@ -2915,7 +2930,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>190</v>
       </c>
@@ -2935,7 +2950,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -2955,7 +2970,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -2976,7 +2991,7 @@
       </c>
       <c r="H100" s="2"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -2996,7 +3011,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -3016,7 +3031,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -3036,7 +3051,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -3056,7 +3071,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -3076,7 +3091,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -3096,7 +3111,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -3116,7 +3131,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -3136,7 +3151,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -3156,7 +3171,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -3176,7 +3191,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -3196,7 +3211,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -3216,7 +3231,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -3236,7 +3251,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -3256,7 +3271,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -3276,7 +3291,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -3296,7 +3311,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -3316,7 +3331,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -3336,7 +3351,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -3356,7 +3371,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -3376,7 +3391,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -3396,7 +3411,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -3416,7 +3431,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -3436,7 +3451,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -3456,7 +3471,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -3476,7 +3491,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -3496,7 +3511,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -3516,7 +3531,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -3536,7 +3551,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -3556,7 +3571,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -3576,7 +3591,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -3596,7 +3611,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -3616,7 +3631,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -3636,7 +3651,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -3656,7 +3671,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -3676,7 +3691,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -3696,7 +3711,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -3716,7 +3731,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -3736,7 +3751,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -3756,7 +3771,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -3776,7 +3791,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -3796,7 +3811,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -3816,7 +3831,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -3836,7 +3851,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -3856,7 +3871,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -3876,7 +3891,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -3896,7 +3911,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -3916,7 +3931,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -3936,7 +3951,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -3956,7 +3971,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -3976,7 +3991,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -3996,7 +4011,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -4016,7 +4031,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -4036,7 +4051,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -4056,7 +4071,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -4076,7 +4091,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -4096,7 +4111,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -4116,7 +4131,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -4136,7 +4151,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -4156,7 +4171,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -4176,7 +4191,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -4196,7 +4211,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -4216,7 +4231,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -4236,7 +4251,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -4256,7 +4271,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -4276,7 +4291,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -4296,7 +4311,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -4316,7 +4331,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -4336,7 +4351,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -4356,7 +4371,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -4376,7 +4391,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -4396,7 +4411,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -4416,7 +4431,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -4436,7 +4451,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -4456,7 +4471,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -4476,7 +4491,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -4496,7 +4511,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -4516,7 +4531,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -4536,7 +4551,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -4556,7 +4571,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -4573,6 +4588,74 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>191</v>
+      </c>
+      <c r="B181" t="s">
+        <v>192</v>
+      </c>
+      <c r="C181">
+        <v>4</v>
+      </c>
+      <c r="D181" t="s">
+        <v>183</v>
+      </c>
+      <c r="E181">
+        <v>7</v>
+      </c>
+      <c r="F181" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>193</v>
+      </c>
+      <c r="B182" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>194</v>
+      </c>
+      <c r="B183" t="s">
+        <v>192</v>
+      </c>
+      <c r="C183">
+        <v>5</v>
+      </c>
+      <c r="D183" t="s">
+        <v>183</v>
+      </c>
+      <c r="E183">
+        <v>5</v>
+      </c>
+      <c r="F183" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>195</v>
+      </c>
+      <c r="B184" t="s">
+        <v>192</v>
+      </c>
+      <c r="C184">
+        <v>5</v>
+      </c>
+      <c r="D184" t="s">
+        <v>183</v>
+      </c>
+      <c r="E184">
+        <v>10</v>
+      </c>
+      <c r="F184" t="s">
         <v>184</v>
       </c>
     </row>
